--- a/biology/Zoologie/Cordulia/Cordulia.xlsx
+++ b/biology/Zoologie/Cordulia/Cordulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordulia est un genre de libellules de la famille des Corduliidae (sous-ordre des Anisoptères dans l'ordre des Odonates).
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les libellules du genre Cordulia ont les ailes transparentes sans aucune tache. Leur corps est généralement d'un brun foncé avec des reflets métalliques verts. Le thorax est poilu dans son ensemble et l'abdomen est glabre et luisant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les libellules du genre Cordulia ont les ailes transparentes sans aucune tache. Leur corps est généralement d'un brun foncé avec des reflets métalliques verts. Le thorax est poilu dans son ensemble et l'abdomen est glabre et luisant.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Odonata List[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Odonata List : 
 Cordulia aenea (Linnaeus, 1758)
 Cordulia amurensis Selys, 1887
 Cordulia shurtleffii Scudder, 1866</t>
